--- a/02-central-tendency-asymmetry-variability/correlation.xlsx
+++ b/02-central-tendency-asymmetry-variability/correlation.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\statistics-4-data-science-business-analysis\02-central-tendency-asymmetry-variability\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2DB588-4709-46D0-AED6-FA265234C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="13" r:id="rId1"/>
     <sheet name="cov" sheetId="10" state="hidden" r:id="rId2"/>
     <sheet name="Covariance2" sheetId="11" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -92,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -3530,30 +3539,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="4.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3561,7 +3572,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3569,13 +3580,13 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3597,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3608,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3608,25 +3619,25 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3640,7 +3651,7 @@
       <c r="J10" s="5"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="19">
         <v>344</v>
       </c>
@@ -3655,7 +3666,7 @@
       <c r="J11" s="5"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="19">
         <v>383</v>
       </c>
@@ -3711,7 +3722,7 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
@@ -3732,7 +3743,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3745,7 +3756,7 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3758,14 +3769,17 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="24">
+        <f>CORREL(C11:C15,D11:D15)</f>
+        <v>0.93812571333175809</v>
+      </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="13"/>
@@ -3776,7 +3790,7 @@
       <c r="H22" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="G11:G19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G11:G19">
     <sortCondition descending="1" ref="G11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3786,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G16"/>
   <sheetViews>
@@ -3794,29 +3808,29 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>-4142000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -3907,7 +3921,7 @@
         <v>133965000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -3918,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3930,14 +3944,14 @@
         <v>33491250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
     </row>
@@ -3948,35 +3962,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4061,7 @@
         <v>-4142000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -4067,7 +4081,7 @@
         <v>133965000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -4078,7 +4092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4090,14 +4104,14 @@
         <v>33491250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
     </row>
